--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>evil</t>
@@ -52,19 +55,13 @@
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>hate</t>
   </si>
   <si>
     <t>scary</t>
@@ -76,9 +73,6 @@
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -91,22 +85,22 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>social</t>
@@ -473,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +475,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -542,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9666666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -560,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9444444444444444</v>
@@ -592,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -610,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -634,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -642,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -663,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -684,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9134615384615384</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -710,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -734,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,13 +736,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -760,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.5666666666666667</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -810,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.5517241379310345</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -834,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -860,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.52</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +886,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -910,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.08014571948998178</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -942,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5384615384615384</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -960,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.0286144578313253</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -992,13 +986,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5144927536231884</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1010,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1018,13 +1012,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4285714285714285</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1044,13 +1038,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.425531914893617</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1070,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3714285714285714</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1088,59 +1082,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
